--- a/data/region counts and lat long.xlsx
+++ b/data/region counts and lat long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lknelson\Documents\GitHub\climate_perceptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D841163-D6FE-46A8-A34D-99CB8515D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634548B-CD2F-457F-BB8C-295235A4D5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E0FFD14-716F-4D37-979F-63522C8EF45E}"/>
+    <workbookView xWindow="20520" yWindow="75" windowWidth="14355" windowHeight="15405" xr2:uid="{5E0FFD14-716F-4D37-979F-63522C8EF45E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>region</t>
   </si>
@@ -43,9 +43,6 @@
     <t>responses</t>
   </si>
   <si>
-    <t>geometry</t>
-  </si>
-  <si>
     <t>Central CA</t>
   </si>
   <si>
@@ -67,25 +64,10 @@
     <t>WA Coast</t>
   </si>
   <si>
-    <t>c(47.864783, -122.443363)</t>
-  </si>
-  <si>
-    <t>c(47.577667, -124.621891)</t>
-  </si>
-  <si>
-    <t>c(44.749584, -124.570719)</t>
-  </si>
-  <si>
-    <t>c(46.154489, -123.066747)</t>
-  </si>
-  <si>
-    <t>c(37.623897, -123.708016)</t>
-  </si>
-  <si>
-    <t>c(33.539443, -119.978156)</t>
-  </si>
-  <si>
-    <t>c(39.754936, -124.293174)</t>
+    <t>lattitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -437,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9B629A-E9DA-4657-8A4B-743FA586A106}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +431,7 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,84 +439,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>35.922243000000002</v>
+      </c>
+      <c r="D2">
+        <v>-123.708016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>46.154488999999998</v>
+      </c>
+      <c r="D3">
+        <v>-123.06674700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>38.906821000000001</v>
+      </c>
+      <c r="D4">
+        <v>-124.543211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>44.749583999999999</v>
+      </c>
+      <c r="D5">
+        <v>-124.570719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>47.864783000000003</v>
+      </c>
+      <c r="D6">
+        <v>-122.44336300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>33.539442999999999</v>
+      </c>
+      <c r="D7">
+        <v>-119.978156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
+      <c r="C8">
+        <v>47.577666999999998</v>
+      </c>
+      <c r="D8">
+        <v>-124.62189100000001</v>
       </c>
     </row>
   </sheetData>
